--- a/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
+++ b/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/sudha_gcupadhaya_wsu_edu/Documents/Desktop/New folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlinnardwheeler/Desktop/Desktop - David’s MacBook Pro/Research/RNA-seq/Manuscripts/JournalPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{FE88F0E1-804C-4CCE-91C6-B2E968D8B878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBDCF176-6C07-4FEE-9252-3B1CFA89DFA1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE7C13-F7FF-CB41-A4BB-4E06293DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10876" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17120" windowHeight="10880" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -637,20 +637,21 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="18.86328125" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -726,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -764,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -802,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -840,7 +841,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -878,7 +879,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -916,7 +917,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -954,7 +955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -989,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1314,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1366,6 +1367,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A405498542C8C3489A26ED31B6FB6BC7" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e55056d16f9a16ddf1f9ebe4ca964fa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="801f6cec-90ea-4220-916e-6af857acad63" xmlns:ns4="75a8b541-bace-45e5-b228-00a14a4a2df8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="344f4c16c82d69bd5c0449d16e23717b" ns3:_="" ns4:_="">
     <xsd:import namespace="801f6cec-90ea-4220-916e-6af857acad63"/>
@@ -1594,12 +1601,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C485C286-33D2-4DAC-8401-F65FFF337E84}">
   <ds:schemaRefs>
@@ -1609,6 +1610,23 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{391FE937-2BD7-4586-8000-29EB59C568D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1625,21 +1643,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
+++ b/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlinnardwheeler/Desktop/Desktop - David’s MacBook Pro/Research/RNA-seq/Manuscripts/JournalPaper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/sudha_gcupadhaya_wsu_edu/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE7C13-F7FF-CB41-A4BB-4E06293DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{58AE7C13-F7FF-CB41-A4BB-4E06293DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8A219C-45B4-4737-975E-99394EC08916}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="17120" windowHeight="10880" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mint" sheetId="1" r:id="rId1"/>
+    <sheet name="potato" sheetId="2" r:id="rId2"/>
+    <sheet name="mustard" sheetId="3" r:id="rId3"/>
+    <sheet name="Vd" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>Mentha x piperita</t>
   </si>
@@ -282,7 +285,127 @@
     <t>resistantance response</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>MFP1_TOBAC</t>
+  </si>
+  <si>
+    <t>Cluster-67248.140445</t>
+  </si>
+  <si>
+    <t>cytoskeletal protein binding//gamma-tubulin binding//identical protein binding//protein binding, bridging//receptor binding</t>
+  </si>
+  <si>
+    <t>GAGGACAAAATATATAACATCCTCCACTGAAACTAAACTCACAGCTTCTATGAGGAAGAACTGCTTCGCTCCCCACTCCAAAATCAAGAACAAGAGAAGGATCAGATGGTTTCTTTAGTCCATTATTCTCTCATCTCCACGCCCTCTTCGCCAATCTTGTTATCGCCGCCGAGAAATGCGGTTTCTCGCAGAAGGAAGAGAGCTGCCGTAGCTTGTCTGCAGCAAGAAAATCGAAGAGATGAAGACTTGCGCAGTCGAAGGGCGATTCTTTACATGGGCTTTGCTTCAATTCCATTTCTTGCGTTGAGGGCTGAGGCTGTTGAAGGACTAGTAGCAGCAGAAAATTCAGAATCGACAAAAGTAGATCAGAAACTAGAAGGAGAGAAGGCCACTTCAAACCCGTTTCTTTCACTTCTAAACGCTCTCGGGTTTCTGGGGTCAGGGGTCCTTGCAGCTCTCTATGCCTCGCTGCAGAAGGAAAATGCCGAGGCAGATTCAACAATCGAGTCTCTTAGAGTCAAACTGAACGAAAACGAAGCTTCCATGACTTCTCTGAAGAAGAAATTCGAGTCTGAGCTTTTGAAAGAGAAAGAAACCGGAAAGAAGGCACTTGGAAAAGCCAATGAGGAGAAGCAGTCTTTAGTTAACCAGTTGAATAGTGCAAATGCTTTAGTAATAGATCTTGGAAAGGATCTTCAGAAAGAGAAGAAATTAGTCGAAGAAAAGATGTTCGAAGCTGAGCGACTTGAAAACAGCCTTCGTGAAGCTAGCAATGAGATAAGAGAACTGCAACATGAGTTGAAGGAAAAAGTCGACTCTTTAGCTATCTTAGAGGAGAGGATAAACTTGCTCTCTTCAGAGGTGAAGGAGAAGGAAGAGAATCTAGCCACTGTTAATTCTAAACTTGTCGAAAAAGAAAAAGATTTAGAACAACTGAGGTATGTTTATAAGCAAGCTCAGGATCAGCTAAGTGATTTGAGTACAGGGATTCAAAAACTGAAAGACGAGATTGTGAAAAAGGAAAAGGAGCTGGAGTCGAAGAATACAGAAATAGATAATTTGAATGCAGATTTATCTTTGACACGTGCTGAGTTGGATGAATCTAAGGAAAAGCTCAATGCCCTTGCGAAGGAATACGACCAGTTCAAGTCGTCTGCTGAAAAGAAGGCTGCTTTTGACGCTAAGATTTTGAGTGAAAAAGAAGAAGCGATTCAACAACTTGAGGAAAGACTAAAGGCTGCTTTGGATGAGGTGAAGAATAACGAATTGTTGATTTCCGATTTGAGAAGTAAAAAAGAGAGCTTAAC</t>
+  </si>
+  <si>
+    <t>CIPK3_ARATH</t>
+  </si>
+  <si>
+    <t>Cluster-67248.83389</t>
+  </si>
+  <si>
+    <t>phosphotransferase activity, alcohol group as acceptor//protein kinase activity//host cell surface receptor binding//ATP binding</t>
+  </si>
+  <si>
+    <t>TCTTTTTTCTTTTTCTTTTTTGGTTACTTTCTTTGGTGGGGTTTCTACCGTTCTGCATCATAAATCTTGATGTTGGTTGGACTCATTTGGACTGTTTATTTTTTTGTCAAAATTTATGCCAAATTTATAAGTATATATCTTTTTTCTTTATCACACTCCACTTTTCCAGTTTTTGGTGCTCTGTATTTGAAGTGATTACGTGAGGGATTTAGGAGTTGTGTTGTGGGTTTCGATTGCTTGCTCAGTGTGTGGCTCTAGTATCTTCAAGTGCTGTGATCTTGGAAGAATTTCTGGGTTTGTGATTCTTGATCGAGTTCTCAAAGTGGCAAGAGATTTTCTTGAGATTTTGTTGGGATTTGAAGATTCCTATTGAAGACTAGGATTATTAGGGGCAATATCAACCCACCAGATAGTCAGTCACAAATGAATCAACCAAAAATCAAGCGAAAAATTGGGAAGTATGAGGTTGGAAGGACAATTGGTGAGGGGTCATTTGCCAAAGTTAAATTTGCCAGAAATTCTCAGACTGGAGAAGCTGTGGCTATCAAGATTCTCGACAAGGATGCGGTCCTAAAGCACAAAATGGCCGAACAGATCAAGCGGGAGATCGCAACAATGAAATTGATCAAACATCCCAATGTTGTTAGCATATATGAGGTGATGGGCAGCAAGACCAAGATATTTATCGTTTTGGAGTTTGTCACTGGGGGAGAGCTATTTGACAAAATTGTAAATCATGGAAGGATGAGAGAAGAAGAAGCCAGAAGATACTTTCAGCAACTTGTAAATGCTGTTGATTATTGCCATAGTAGGGGGGTCTTTCACAGAGATCTCAAGCCAGAAAACTTACTGCTGGATGCTTCTGGAAACCTAAAAGTTACTGATTTTGGATTAAGTGCCTTGTCTCAGCAAGTCAGGGACGATGGTTTGCTGCATACTGCCTGTGGAACACCAAATTACGTTGCCCCAGAGGTACTAAATGATAGAGGATACGATGGAGCAAAAGCAGACCTGTGGTCTTGTGGAGTAATACTTTTCGTGTTGCTTGCAGGCTACTTGCCTTTCGATGATTCTAATGTTATGAACCTATATAAGAAGATATCTTCTGCTGAATTCTCATGCCCTCCTTGGCTCTCCTTTGGAGCCATAAAGTTGATTACTCGAATCTTGCAGCCAGATCCTCTGAAACGAGCTACAATCCCTGATATATTGGCGGATGATTGGTTTAAGAAAGACTACAAGCCAGCAGTGTTTGATGAGAAAGAAGATGCGAGTTTGGATGACGTGGAAGCTGTGTTTAAGGATTCTGAGGAATTTCATGTGACTGAGAAAAAAGAGCAACAGCCGGCCGCAATGAATGCCTTCGAGTTAATTTCCATGTCGAAAGGTCTTAATCTAGGGAATCTATTCGATGCAGAACAGGAGTACAAGAGGGAGACTAGGTTCACATCTAAATGCCCAGCTAATGAGATTATCAAAAAGATCGAACAAGCTGCAAGGCCTCTTGGTTTCGATGTTCAAAAGAAAAATTACAAGATGAGGCTTGAAAATTCGAAAGCAGGAAGAAAAGGCAACCTCAATGTTGCAACCGAGGTTTTTCAAGTCGCCCCATCTTTGCATATGGTTGAGGTCCGAAAAGCAAAGGGAGATACTTTAGAATTCCACAAGGTACATTAACTCTGCTGAAAGTGTGCTTTATAATAATATTTGTAAATCAAATTTGTGATACGTCGTTGTGCAGTTCTATAAAAACCTTTCTACCTGCCTTGAGGATGTAGTTTGGAAAACCGAAGAGGAGATGCAAGAAATGAAGTAAGAGATTTTGAGGTCCAATTTTGTTATTTACAAGTGTATAAAGTTGCGGGATTGCCATTCTTTTGTTGATTTGGTTTCTCTCGTCGGACCTTTTTCTTCCAAGAGAGAATCTTTTGCTTCGTCGGTTTCTTGGTATGAAGATTGCAGAGCTTAGACTGTTTTCTTGTGATGTATGGTTTTACTAGTTATCTTTACATTTAGGCAAGCACCCTATTCATTGAAGTGAATCTCTTGGACTCTTTAGTCTCATTATTGGCACAATATCATCTCGTCTCTGTTTTGCTGCCGTCATGAGAGAAACACGTTCTTTCTATTAAATTATTATTTATATTATATTTTATTAGTTTTCGGAGGGCTTCGCCCGTGGCTGCATTGGAGCCCTCCGAAACATGGAGGGCTCAACAATATTTTATTATTATTTTTTTTTAAT</t>
+  </si>
+  <si>
+    <t>LYK5_ARATH</t>
+  </si>
+  <si>
+    <t>Cluster-67248.125017</t>
+  </si>
+  <si>
+    <t>TAGACATTGTATAACATTTCGTAATGTAATTAGGTAGATTTTTATTTCATACATCACAAAGTACAAAACTAGTACTATTTCACAGATAATCTCATCTCCTCCTATCCTCCTCGTATCATAATATGGAACGACATCATAAGTATACACTCAAACTGCACCAACAAATGTTAGAACAGAAGATAAAACTACCATTCGGAATCGTAATAGAGAGTTCCAACAAAACTACCTAGCAACGACTTGCCTTGGAGAGAGCCCGTTATCCTCAGAGACATCAAAGAAGAGATCGTCACTCTTAGACAACGCATACACAATCTCCACCATGCTAGGCCTCCTTGCAGGGTCCTTATGCAGGCAAGCAAGGGCCACTGCCATCACACTCGACACGCTCTCCATCGTGCACGATTCTCTCAACAGGCACTCGTCCATCCACTCCCTGATCTTCCTCAACTTCCTCTCCTCCTTCCCATCCATAACTCCGCTAGCACTACTCCACAACACATTCCCCTCTACATCTAAAGCCTCACGCCCCGAGATCAGCTCGAGCAGCACTACTCCGAAGGAGAACACGTCCATTTTAGTCGAGACAACTCCATCAGAAAGGTACTCAGGTGCAATGTAACCTTGTGTGCCCACAATGTGCATTGTTATGGCGTTGCATCCCGATTTCGCAAGGCCGAAATTGGCAATCTTGGCCCTCATGTTCGAGTCTAAGAGGATGTTGCTACTCTTTATGTCCTTGTGCACAACTTTAGGCCTCGTGTGCTCGTGGATGTATTGGAGGCCGTTTGCCACATCGATGGCGATTCTTAGCCTTGTTTTCCAGCTCAGTTTCTCGGACTTTTCTTCGTGGAGCCACGAGTGGAGGGAGCCGTTTTCAGCGTATTCATATACCAGGTAGCAGTTTCCTTCCTCGGCGTCTATGCAGAAGCCTTCTAGCCTCACTAAGTTCCCATGGTTCACCTTTTGTAGGATCTTGAGTTCCTCATAGGCATTCCACTTCATTTTCTTGATGGCAAACCATTCTCCATCGATGCTACCTTTGTACACAGAGCCTTGAATAATCCATTTATCATCAAATCCATCTGTTGCAGCTCTCAAATCCTCAATTGCAAACACTTTGTACTTATCCAAACATCCCGAAACATCAGCCATCAAACTCATTTTCTCAGCCTTCAACAGTTCACCCCCTTTCTTCTTCTTCTGCTGCTTCTCCTCATCAATATACTCTCTCCTTCTCTCTCTGTAACACAAAACACCAGAAACCAATACCAACAGCGGCGCACATAATCCAAGCCCGATCCCTAGCCCCACAACCGCCCCTTTCCTCTCTCTCACCTGAGGAGAGAGAGGAGGAACCAAAGGCTGCGTCAAATTTGGCAGAATTGAAACAGGGACGAATATAGTTTCCAACGGCCTAATGTTACCGCCGTTCACTTCCGTTATAGACTGCTCCGACGCTCCGAACCTCGACGCGACCGCGCCTAAAGTATCCGACGGCTGAAAAACGTAGCTGATTAGATAGTTGACTCCATTCCGCCGCTGCGACGAGCTAGGGCACTGGCAGAAGATGGGGAAAACGACGACGTCTCCTACTTCAAGCTTCGTAGGGGGGAAATCGGGATTCACGACCTCCACGGATTGATATGTGGTGAGGTTTTGGTAGCTGTTGGTGGAGACTAAGAAGAAAGTGTCGCCGCTTCTGATGGTGTAGTTCTGGGGTGAATAGGAGATGGTGATGGTGCTGTTGACAGTGTTGCAGGAGCATTTGATGGGGACGAAGAGGAATTGATCGGGGAGGAGAGGGGAGGAGGGAGAGGAGATGTTGCTCGGCTTCGCGATGGAGGGGCGGCTGACGGAGAAGAGGTCTCCGACGGAGGCGAGATCGAGAAATCCCGGCGGCGTGGCTCGGAAGAAGACGTAGGTGTCGCAGGGGTTGGAAGATTGGTTGGCGGTGCAGTTGTAGCCGATGGTGGTGGGGAGGAGTTGAGCTTTTACGTTGTGCCATAGGAGGAGGAGGATGGTGAAGAGCAGTGGAGGGAGATGGTCGGATTTGAGTTTCATTTTTGAAGGTTTGATGAAAGGGAAGGGATGATGGATTTCTTTC</t>
+  </si>
+  <si>
+    <t>CHITIN BINDING/CELL MEMBRANE LOCALIZATION</t>
+  </si>
+  <si>
+    <t>BIR2_ARATH</t>
+  </si>
+  <si>
+    <t>Cluster-67248.59186</t>
+  </si>
+  <si>
+    <t>AAAAAAGTTTCCGAAAGATTAAGACCTAAATTCCACCTCATACTCATAATAAATACTACTAATAGCTTTAAGTCAAACATTGAAGGCAATATTTAGAACACGAACCACCCGTAGGAAATAGTTTTTCTTACAACAAATCTCAAACAAAGAAGAACATCTCAAGTAGTACTACAAGTCATGCAAGTACAGCTACCCCTCTCAGTCTCAGCAAATGTGGCAATGCATCACACAATATTAGCTTTGTCCAAAGATCATCAAATTGGAATAGGAGTTGCAGGCTCTGGTTTCCCAAACACAAGAGGGAACTCATCGTACTGTTCTGAGAAACCATGCTCCTCATCCATGCCCTTCATCGATTCATAAACCTGATACATCGACCACCGATCTTTGGGCCGAGAAACCACACAATTACAGGCAATTTTTAACAACTTGACAATATCCTCGTCGTTTACCTTCCCTCGTAGCTGTATATCGATACAATCTTTTATCCGACCTGCACCAGAGAGCTGGCTTACCCAGTCCACCAAATTGCCCTTAAACATTTCATCCACGGCACTAACATCAAGAGGTTTTAAACCAGTTGCCAGCTCAAGAAGCACCACTCCGAAACTATAAACATCCCCTTTCAGAGAGGCAACCGCGGTGCTTGAATACTCCGGAGCAACATATCCAACCTCACCTAAATCCCCATACACGAAACTACTCTCATTTGACTCCGAAGACGCCATGAGCCTAGCCAAACCGAAGTCCATGATCCTAGCATCATAGTCCTCATCCAGCATAACTACGTTGGAGCTAATATTCTGGTGCAAGATTGGAGGGTGGCAACCGTGGTGAAGCCAAGCAAGTCCCCGAGCAGCTCCTAATGCGATTCTAAACCTGGTCGGCCAATCCAACACACTCGAGCTACCAACCAGAGTTGAACCAAGAGTCCCATTTGACAAATGCTTGTAAACCAACAGCTTCTCCCCCTCCACCAAGCAGAAGCCCAACAATGGCACCAAGTTTGGGTGCCTCAACTGCCCCAACCTATTCATCTCCATCCTAAACTGCTTCTCTGCAATCTTGCACGAGCTTAGCCGCTTGATTGCCAGAGCAGACCCATCAGGCAACACAGCCTTGTAGGTAGTCCCTGTCCTACTCGATACGATCACGTTCTCCGAGCTGAAATTGTTCGTTGACGCCAACAAATCCGCCAACTTCACCTTCACCAGCGGCTTCTGAAACAGCATCACCTGTGTGAGCTTGTGCGCTCTCAATACCTCAGCCCAGTTATTACTGCCACCACCTTCGTCTCTTCCTCCGATCCCATAATCCCTCTTTCGCCTTTTTCCAGATCCAGTGACGTACCACCACCACAGACCAAGCCCCAGCAGCAACGACGCGGCGGCGCCGAAAACGCCGGCGGCGATGATAATCGCCAAGCTCTTCTTACTCAAGCCGCCACATTTCCCCGCCGGACCGCCGCAGAGGCCGCTATTGCCGCCGAAATCGAGCTCCAGTCCGTAGTTGAAAGACGGCACTCTCCCTGAGAGATCGTTATTCGCGACGGAGAACTTCTTCAATCTCTGTAGATTCGAGAACTTGTAGGGGATACTACCCGACAGCTTGTTGTCATCCAAAATCAAAGTGTTCAAGTAGGAGCAGTTGGCGAGATCCTCCGGGATTTGACCGGTCAAACCGTTGCGCGACAGGTCGAGAGTGGTGAGAAACGGCAGCCATTTGCAGATTTCCGGAGAAATCAAACCGGAGAGAGAGTTGCTGGAGAGATCTAGGGTTTCGAGACTCTGGCAGAAGTGGAGGGAGTCCGGCGTCAACAACCATTAACAGGTGGAGGAGG</t>
+  </si>
+  <si>
+    <t>RECEPTOR/PLANT DEFENSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cysteine rich receptor like kinases/receptor activate ROS production/in response to MAMP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">not the receptor but requreied for the activation of  receptor </t>
+  </si>
+  <si>
+    <t>Auxin receptor</t>
+  </si>
+  <si>
+    <t>overexpression of TIR1 increase the plant susceptibility</t>
+  </si>
+  <si>
+    <t>protein serine kinase activity/ plant defense signalling</t>
+  </si>
+  <si>
+    <t>mitogen activated protein kinase 9/intracellular signal transduction/</t>
+  </si>
+  <si>
+    <t>silencing enhanced susceptibiltiy.</t>
+  </si>
+  <si>
+    <t>response to chitin PAMPs/innate immunity/</t>
+  </si>
+  <si>
+    <t>Inactive LRR receptor like serine/theronine kinase BIR2/receptor/</t>
+  </si>
+  <si>
+    <t>negative regulator of PAMP triggered immunity by limiting BAK1 receptor complex formation in the absense of lighands</t>
+  </si>
+  <si>
+    <t>disease resistance protein/SA signaling/</t>
+  </si>
+  <si>
+    <t>receptor/in membrane</t>
+  </si>
+  <si>
+    <t>probable serine/threonine protein kinase/ interact with effectors</t>
+  </si>
+  <si>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>Regulation</t>
+  </si>
+  <si>
+    <t>Base mean</t>
+  </si>
+  <si>
+    <t>Log2 fold change</t>
+  </si>
+  <si>
+    <t>Gene name</t>
+  </si>
+  <si>
+    <t>Gene ID</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Sequence</t>
+  </si>
+  <si>
+    <t>Validated by</t>
+  </si>
+  <si>
+    <t>Receptor/not</t>
   </si>
 </sst>
 </file>
@@ -298,12 +421,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -318,8 +465,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,24 +786,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F382F-7F82-4EE7-AC04-DD2264B9614F}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="6" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.265625" customWidth="1"/>
+    <col min="9" max="9" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K1" t="s">
+        <v>121</v>
+      </c>
       <c r="L1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -662,110 +848,122 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>24.2</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E2">
-        <v>7.7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
+        <v>8.9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" t="s">
         <v>6</v>
       </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>24.2</v>
       </c>
       <c r="E3">
-        <v>6.6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
+        <v>7.7</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>10.4</v>
+        <v>18.3</v>
       </c>
       <c r="E4">
-        <v>-7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
+        <v>7.2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
         <v>8</v>
       </c>
-      <c r="L4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -773,37 +971,37 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>7.8</v>
+        <v>18.3</v>
       </c>
       <c r="E5">
-        <v>-7.5</v>
+        <v>6.8</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
       <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
         <v>8</v>
       </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -811,186 +1009,210 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>59.9</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
+        <v>6.6</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" t="s">
         <v>6</v>
       </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="E7">
+        <v>2.6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
         <v>8</v>
       </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="M7" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>137.80000000000001</v>
-      </c>
-      <c r="E7">
-        <v>-1.4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>160.19999999999999</v>
+        <v>187.6</v>
       </c>
       <c r="E8">
-        <v>2.6</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
+        <v>1.2</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" t="s">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>38</v>
-      </c>
       <c r="K8" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="M8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
       <c r="D9">
-        <v>34.799999999999997</v>
+        <v>189.9</v>
       </c>
       <c r="E9">
-        <v>8.9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>40</v>
+        <v>0.7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="I9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" t="s">
         <v>6</v>
       </c>
-      <c r="J9" t="s">
-        <v>43</v>
-      </c>
       <c r="K9" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="M9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10">
-        <v>160.19999999999999</v>
+        <v>215</v>
       </c>
       <c r="E10">
-        <v>-3.4</v>
+        <v>-0.8</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="I10" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1001,31 +1223,34 @@
         <v>16</v>
       </c>
       <c r="D11">
-        <v>42.8</v>
+        <v>340.1</v>
       </c>
       <c r="E11">
-        <v>-1.9</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" t="s">
         <v>6</v>
       </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
       <c r="K11" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1036,34 +1261,31 @@
         <v>16</v>
       </c>
       <c r="D12">
-        <v>73.400000000000006</v>
+        <v>278.7</v>
       </c>
       <c r="E12">
-        <v>-1.7</v>
+        <v>-1.3</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
-        <v>52</v>
-      </c>
       <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
         <v>14</v>
       </c>
-      <c r="L12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1074,31 +1296,34 @@
         <v>16</v>
       </c>
       <c r="D13">
-        <v>278.7</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="E13">
-        <v>-1.3</v>
+        <v>-1.4</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" t="s">
         <v>6</v>
       </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
       <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1109,31 +1334,37 @@
         <v>16</v>
       </c>
       <c r="D14">
-        <v>835.3</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="E14">
-        <v>-0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
         <v>6</v>
       </c>
-      <c r="J14" t="s">
-        <v>61</v>
-      </c>
       <c r="K14" t="s">
+        <v>52</v>
+      </c>
+      <c r="L14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1144,31 +1375,34 @@
         <v>16</v>
       </c>
       <c r="D15">
-        <v>526.70000000000005</v>
+        <v>59.9</v>
       </c>
       <c r="E15">
-        <v>-0.5</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1176,69 +1410,75 @@
         <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>18.3</v>
+        <v>59.9</v>
       </c>
       <c r="E16">
-        <v>6.8</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" t="s">
         <v>6</v>
       </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
       <c r="K16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>18.3</v>
+        <v>160.19999999999999</v>
       </c>
       <c r="E17">
-        <v>7.2</v>
+        <v>-3.4</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
         <v>6</v>
       </c>
-      <c r="J17" t="s">
-        <v>68</v>
-      </c>
       <c r="K17" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1249,34 +1489,34 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>340.1</v>
+        <v>10.4</v>
       </c>
       <c r="E18">
-        <v>-1.1000000000000001</v>
+        <v>-7</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
         <v>6</v>
       </c>
-      <c r="J18" t="s">
-        <v>73</v>
-      </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1284,92 +1524,308 @@
         <v>9</v>
       </c>
       <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19">
+        <v>7.8</v>
+      </c>
+      <c r="E19">
+        <v>-7.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
         <v>2</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>553.70000000000005</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>0.5</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>75</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H20" t="s">
         <v>76</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I20" t="s">
         <v>12</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J20" t="s">
         <v>6</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K20" t="s">
         <v>77</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L20" t="s">
         <v>14</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="D20">
-        <v>215</v>
-      </c>
-      <c r="E20">
+      <c r="D21">
+        <v>526.70000000000005</v>
+      </c>
+      <c r="E21">
+        <v>-0.5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+      <c r="L21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>835.3</v>
+      </c>
+      <c r="E22">
         <v>-0.8</v>
       </c>
-      <c r="F20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" t="s">
-        <v>80</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L22" t="s">
         <v>14</v>
       </c>
-      <c r="I20" t="s">
+    </row>
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2">
+        <v>210.7</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J20" t="s">
-        <v>81</v>
-      </c>
-      <c r="K20" t="s">
+    </row>
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2">
+        <v>317.7</v>
+      </c>
+      <c r="E24" s="2">
+        <v>-0.9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L20" t="s">
-        <v>82</v>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>42.8</v>
+      </c>
+      <c r="E25">
+        <v>-1.9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>6</v>
+      </c>
+      <c r="K25" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M19">
+    <sortCondition descending="1" ref="E2:E19"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62E41AFE-9B75-4179-95A6-DAD3D1DD4617}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{153B54CB-76F2-48DD-B58E-F8445F4E1689}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F557FDC7-7510-4B33-BB1B-D0B667719134}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1602,26 +2058,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C485C286-33D2-4DAC-8401-F65FFF337E84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C485C286-33D2-4DAC-8401-F65FFF337E84}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
+++ b/Manuscripts/JournalPaper/mint_defense or receptors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://emailwsu-my.sharepoint.com/personal/sudha_gcupadhaya_wsu_edu/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidlinnardwheeler/Desktop/Desktop - David’s MacBook Pro/Research/RNA-seq/Manuscripts/JournalPaper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{58AE7C13-F7FF-CB41-A4BB-4E06293DD5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD8A219C-45B4-4737-975E-99394EC08916}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CCD9DA-C53B-9E4D-9905-C729394831A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{0F00692D-60A1-41F1-A309-1ACF0F69DFC1}"/>
   </bookViews>
   <sheets>
     <sheet name="mint" sheetId="1" r:id="rId1"/>
@@ -788,18 +788,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9F382F-7F82-4EE7-AC04-DD2264B9614F}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="15.265625" customWidth="1"/>
-    <col min="9" max="9" width="18.86328125" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="73.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>112</v>
       </c>
@@ -837,7 +838,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -878,7 +879,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -919,7 +920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -963,7 +964,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1323,7 +1324,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -1662,7 +1663,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1783,7 +1784,7 @@
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1795,7 +1796,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1807,28 +1808,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A405498542C8C3489A26ED31B6FB6BC7" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e55056d16f9a16ddf1f9ebe4ca964fa2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="801f6cec-90ea-4220-916e-6af857acad63" xmlns:ns4="75a8b541-bace-45e5-b228-00a14a4a2df8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="344f4c16c82d69bd5c0449d16e23717b" ns3:_="" ns4:_="">
     <xsd:import namespace="801f6cec-90ea-4220-916e-6af857acad63"/>
@@ -2057,32 +2043,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C485C286-33D2-4DAC-8401-F65FFF337E84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{391FE937-2BD7-4586-8000-29EB59C568D7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2099,4 +2075,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C485C286-33D2-4DAC-8401-F65FFF337E84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37289CCC-73ED-4B61-AA0F-C5C332EB352A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="75a8b541-bace-45e5-b228-00a14a4a2df8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="801f6cec-90ea-4220-916e-6af857acad63"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>